--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\diplomaDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0887C909-6056-4251-A281-1A2601C685D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433D54CC-3210-4F78-BC60-6AFC454D9B41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F2ABBE70-222A-4273-A599-BFE4964EC47E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F2ABBE70-222A-4273-A599-BFE4964EC47E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>image_size = 128</t>
   </si>
@@ -67,6 +69,15 @@
   </si>
   <si>
     <t>v12</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>V5</t>
   </si>
 </sst>
 </file>
@@ -864,6 +875,671 @@
         <a:xfrm>
           <a:off x="14257020" y="31013400"/>
           <a:ext cx="3375953" cy="4625741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>53714</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683C62CA-D38F-4690-AFA7-89D8269794C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="731520"/>
+          <a:ext cx="4320914" cy="2232853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>519654</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>267303</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>145325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{055865C2-20E7-405F-96CD-7C5EC5BCB10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4786854" y="358140"/>
+          <a:ext cx="5234049" cy="4724945"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>587213</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160272</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB4FC1C-6F34-4A4F-93E7-61CAEF41FFCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="548640"/>
+          <a:ext cx="5464013" cy="2903472"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>312870</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D166DAE1-643F-410B-9E4C-255B160CC11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="4023360"/>
+          <a:ext cx="5189670" cy="1371719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>587161</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9385CCEC-67A6-491A-ABA2-A099F68249A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2948940"/>
+          <a:ext cx="4854361" cy="2872989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434747</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>61203</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCFD2725-6A62-4E47-B62A-6183493DF6B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7863840"/>
+          <a:ext cx="4701947" cy="2804403"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8090</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>68923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C80CEE-13B3-4F9B-8AA3-37BD9E6D92C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4945380" y="7810500"/>
+          <a:ext cx="5425910" cy="3962743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>427034</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>122130</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA49514-2F30-4957-923F-8B9483ABD3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8382000" y="7757160"/>
+          <a:ext cx="3627434" cy="2423370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38579</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22989</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB02391-A2E1-473F-A15A-1A53695B2867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="8412480"/>
+          <a:ext cx="5524979" cy="1486029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>366161</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>160237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A6CC0F-5C5E-4D83-837D-3955361C5E89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620" y="10645140"/>
+          <a:ext cx="4625741" cy="2499577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>119217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683AEF08-E884-4FC8-B41F-F543A22E49DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14081760"/>
+          <a:ext cx="4244340" cy="3228177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>516890</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396608</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>175636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Рисунок 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF6D7F73-B844-494C-9799-8E1A879D0A28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4784090" y="14112240"/>
+          <a:ext cx="3537318" cy="3619876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>472798</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>137489</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4443317D-813F-4112-B1DA-6DAF01523A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="13898880"/>
+          <a:ext cx="4130398" cy="3795089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>434800</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>114516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12C90F1-278C-4E6F-8BC3-4260A0D58A2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13411200" y="15544800"/>
+          <a:ext cx="5311600" cy="2491956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>450026</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Рисунок 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DAC538-2979-4563-A6C1-921D401CA0E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13594080" y="13914120"/>
+          <a:ext cx="5143946" cy="1524132"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028F5753-027E-461B-8BE7-FEBBEC934DEF}">
   <dimension ref="A90:B169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
@@ -1247,4 +1923,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9B9C57-53E9-480A-A9F1-05695A582F01}">
+  <dimension ref="A3:A76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>